--- a/Benchmark appli assurance.xlsx
+++ b/Benchmark appli assurance.xlsx
@@ -1,14 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\assur\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA861E0-6E66-4197-A1B4-52172D67D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$40</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -189,19 +211,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,40 +233,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -432,26 +461,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="23.14"/>
-    <col customWidth="1" min="5" max="5" width="16.86"/>
-    <col customWidth="1" min="6" max="6" width="27.29"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,570 +505,570 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>24500.0</v>
+        <v>508</v>
       </c>
       <c r="D2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E2" s="2">
-        <f>(3.6+3.3+3.4+2.8)/4</f>
-        <v>3.275</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>515</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>872</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2900</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <f>8.8/4</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9200</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2290</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3700</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6650</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10400</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12700</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13000.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.15</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2100.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E4" s="2">
-        <f>8.8/4</f>
-        <v>2.2</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8000.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
         <f>(4.1+3.5+3.2+3.5+2.9)/5</f>
         <v>3.44</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12700.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2900.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10400.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9200.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>515.0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6650.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3700.0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2290.0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>872.0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>27300.0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2800.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>508.0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3.1</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1">
-        <v>2000.0</v>
+        <v>24500</v>
       </c>
       <c r="D28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4.7</v>
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <f>(3.6+3.3+3.4+2.8)/4</f>
+        <v>3.2750000000000004</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1042,10 +1076,10 @@
         <v>44</v>
       </c>
       <c r="C30" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>2.8</v>
@@ -1054,27 +1088,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1">
-        <v>2000.0</v>
+        <v>27300</v>
       </c>
       <c r="D31" s="1">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1082,19 +1116,19 @@
         <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="D32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1102,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="1">
-        <v>6659.0</v>
+        <v>6659</v>
       </c>
       <c r="D33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
         <v>3.8</v>
@@ -1114,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1122,19 +1156,19 @@
         <v>16</v>
       </c>
       <c r="C34" s="1">
-        <v>16300.0</v>
+        <v>16300</v>
       </c>
       <c r="D34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1142,19 +1176,19 @@
         <v>16</v>
       </c>
       <c r="C35" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1162,10 +1196,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>3.5</v>
@@ -1174,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -1182,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="C37" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>3.6</v>
@@ -1194,7 +1228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -1202,19 +1236,19 @@
         <v>48</v>
       </c>
       <c r="C38" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -1222,19 +1256,19 @@
         <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="D39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -1242,20 +1276,29 @@
         <v>48</v>
       </c>
       <c r="C40" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="D40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>4.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$40"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Prévoyance"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
+      <sortCondition ref="C1:C40"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>